--- a/2_Tridimensional screening/analysis/screening_surveys/gross screens/AT.xlsx
+++ b/2_Tridimensional screening/analysis/screening_surveys/gross screens/AT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kvase0-my.sharepoint.com/personal/loudel30_kva_se/Documents/Dokument/ESCAPE/Supervision/WEF Risks Reports interannual analysis/Results/1) CONCEPTION/risks analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kvase0-my.sharepoint.com/personal/loudel30_kva_se/Documents/Dokument/GitHub/WEF-GRR-analysis/2_Tridimensional screening/analysis/screening_surveys/gross screens/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{6848EB01-2F90-A243-B030-F2E6D8720871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{951D44BF-97D8-4398-B5B9-F6CF33A0FA18}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="19" xr2:uid="{959A7320-51B1-1040-BF09-D955BFA7AAAD}"/>
+    <workbookView xWindow="57480" yWindow="-300" windowWidth="29040" windowHeight="17520" firstSheet="8" activeTab="11" xr2:uid="{959A7320-51B1-1040-BF09-D955BFA7AAAD}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
@@ -3037,14 +3037,14 @@
       <selection activeCell="D48" sqref="D48:Q48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="45.3984375" customWidth="1"/>
-    <col min="2" max="2" width="19.09765625" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.0703125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
@@ -3063,7 +3063,7 @@
       <c r="S2" s="39"/>
       <c r="T2" s="39"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -3119,7 +3119,7 @@
       <c r="S3" s="39"/>
       <c r="T3" s="39"/>
     </row>
-    <row r="4" spans="1:20" ht="125.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="125.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="96.9" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="180.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="180.9" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="180.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="180.9" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="96.9" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>3.0906792737778601</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="168.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="168.9" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="41" t="s">
         <v>744</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
         <v>33</v>
       </c>
@@ -3412,7 +3412,7 @@
       <c r="S14" s="39"/>
       <c r="T14" s="39"/>
     </row>
-    <row r="15" spans="1:20" ht="108.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="108.9" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
         <v>34</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="204.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="204.9" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>35</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="144.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="144.9" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>36</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="156.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="156.9" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="132.9" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
         <v>38</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="144.9" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="42" t="s">
         <v>744</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>46</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="S22" s="39"/>
       <c r="T22" s="39"/>
     </row>
-    <row r="23" spans="1:20" ht="180.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="180.9" x14ac:dyDescent="0.45">
       <c r="A23" s="14" t="s">
         <v>47</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="204.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="204.9" x14ac:dyDescent="0.45">
       <c r="A24" s="14" t="s">
         <v>48</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
         <v>49</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="156.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="156.9" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
         <v>50</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="108.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="108.9" x14ac:dyDescent="0.45">
       <c r="A27" s="14" t="s">
         <v>51</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="43" t="s">
         <v>744</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
         <v>57</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="S29" s="39"/>
       <c r="T29" s="39"/>
     </row>
-    <row r="30" spans="1:20" ht="144.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="144.9" x14ac:dyDescent="0.45">
       <c r="A30" s="17" t="s">
         <v>58</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="168.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="168.9" x14ac:dyDescent="0.45">
       <c r="A31" s="17" t="s">
         <v>59</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="132.9" x14ac:dyDescent="0.45">
       <c r="A32" s="17" t="s">
         <v>60</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="192.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="192.9" x14ac:dyDescent="0.45">
       <c r="A33" s="17" t="s">
         <v>61</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="132.9" x14ac:dyDescent="0.45">
       <c r="A34" s="17" t="s">
         <v>62</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="168.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="156.9" x14ac:dyDescent="0.45">
       <c r="A35" s="17" t="s">
         <v>63</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="96.9" x14ac:dyDescent="0.45">
       <c r="A36" s="17" t="s">
         <v>64</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="132.9" x14ac:dyDescent="0.45">
       <c r="A37" s="17" t="s">
         <v>65</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="44" t="s">
         <v>744</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>3.7587905052693737</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="18" t="s">
         <v>74</v>
       </c>
@@ -4110,7 +4110,7 @@
       <c r="S39" s="39"/>
       <c r="T39" s="39"/>
     </row>
-    <row r="40" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="96.9" x14ac:dyDescent="0.45">
       <c r="A40" s="19" t="s">
         <v>75</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="132.9" x14ac:dyDescent="0.45">
       <c r="A41" s="19" t="s">
         <v>76</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="132.9" x14ac:dyDescent="0.45">
       <c r="A42" s="19" t="s">
         <v>77</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="120.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="120.9" x14ac:dyDescent="0.45">
       <c r="A43" s="19" t="s">
         <v>78</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="132.9" x14ac:dyDescent="0.45">
       <c r="A44" s="19" t="s">
         <v>79</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="168.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="156.9" x14ac:dyDescent="0.45">
       <c r="A45" s="19" t="s">
         <v>80</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" s="45" t="s">
         <v>744</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>3.8606979874585465</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C48" s="46">
         <v>2024</v>
       </c>
@@ -4350,13 +4350,13 @@
       <selection activeCell="D42" sqref="D42:Q42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="54.3984375" customWidth="1"/>
-    <col min="2" max="3" width="26.8984375" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="2" max="3" width="26.92578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -4378,7 +4378,7 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="1:20" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="36.9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>308</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="24.9" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>259</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>252</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>253</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="36.9" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>309</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="36.9" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>255</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>311</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="36.9" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>258</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="5"/>
       <c r="C12" s="51" t="s">
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
@@ -4727,7 +4727,7 @@
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
     </row>
-    <row r="14" spans="1:20" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="36.9" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>233</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>260</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>312</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>262</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>313</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
       <c r="C19" s="51" t="s">
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>46</v>
       </c>
@@ -4957,7 +4957,7 @@
       <c r="S20" s="38"/>
       <c r="T20" s="38"/>
     </row>
-    <row r="21" spans="1:20" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>264</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>266</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>267</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>314</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>171</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="13"/>
       <c r="B26" s="5"/>
       <c r="C26" s="51" t="s">
@@ -5099,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="15" t="s">
         <v>57</v>
       </c>
@@ -5151,7 +5151,7 @@
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
     </row>
-    <row r="28" spans="1:20" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="36.9" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
         <v>269</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
       <c r="A29" s="21" t="s">
         <v>270</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="36.9" x14ac:dyDescent="0.45">
       <c r="A30" s="21" t="s">
         <v>177</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A31" s="21" t="s">
         <v>315</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A32" s="21" t="s">
         <v>316</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
       <c r="A33" s="21" t="s">
         <v>273</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" s="21"/>
       <c r="B34" s="5"/>
       <c r="C34" s="51" t="s">
@@ -5307,7 +5307,7 @@
         <v>2.9521687537357906</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" s="16" t="s">
         <v>74</v>
       </c>
@@ -5359,7 +5359,7 @@
       <c r="S35" s="38"/>
       <c r="T35" s="38"/>
     </row>
-    <row r="36" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A36" s="20" t="s">
         <v>274</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A37" s="20" t="s">
         <v>317</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
       <c r="A38" s="20" t="s">
         <v>318</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="36.9" x14ac:dyDescent="0.45">
       <c r="A39" s="20" t="s">
         <v>319</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40" s="20"/>
       <c r="B40" s="5"/>
       <c r="C40" s="51" t="s">
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C42" s="46">
         <v>2015</v>
       </c>
@@ -5573,13 +5573,13 @@
       <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="49.59765625" customWidth="1"/>
+    <col min="1" max="1" width="49.5703125" customWidth="1"/>
     <col min="2" max="3" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -5601,7 +5601,7 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
@@ -5657,7 +5657,7 @@
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>399</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>400</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>401</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="72" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>402</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>403</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>404</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>405</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="22"/>
       <c r="C11" s="53" t="s">
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -5927,7 +5927,7 @@
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
     </row>
-    <row r="13" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>233</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="96" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="96" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>406</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="84" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="84" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>407</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>273</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>436</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="8"/>
       <c r="B19" s="22"/>
       <c r="C19" s="53" t="s">
@@ -6131,7 +6131,7 @@
         <v>2.7941416484130039</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>46</v>
       </c>
@@ -6183,7 +6183,7 @@
       <c r="S20" s="38"/>
       <c r="T20" s="38"/>
     </row>
-    <row r="21" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="72" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>409</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="96" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="96" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>169</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>410</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="72" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>411</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>412</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>413</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>414</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>235</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="13"/>
       <c r="B29" s="22"/>
       <c r="C29" s="53" t="s">
@@ -6391,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="15" t="s">
         <v>57</v>
       </c>
@@ -6443,7 +6443,7 @@
       <c r="S30" s="38"/>
       <c r="T30" s="38"/>
     </row>
-    <row r="31" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A31" s="21" t="s">
         <v>270</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="72" x14ac:dyDescent="0.45">
       <c r="A32" s="21" t="s">
         <v>415</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A33" s="21" t="s">
         <v>416</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A34" s="21" t="s">
         <v>417</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="72" x14ac:dyDescent="0.45">
       <c r="A35" s="21" t="s">
         <v>418</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A36" s="21" t="s">
         <v>419</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="72" x14ac:dyDescent="0.45">
       <c r="A37" s="21" t="s">
         <v>420</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="53" t="s">
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="16" t="s">
         <v>74</v>
       </c>
@@ -6671,7 +6671,7 @@
       <c r="S39" s="38"/>
       <c r="T39" s="38"/>
     </row>
-    <row r="40" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A40" s="20" t="s">
         <v>421</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A41" s="20" t="s">
         <v>422</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A42" s="20" t="s">
         <v>423</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C43" s="53" t="s">
         <v>747</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C45" s="46">
         <v>2014</v>
       </c>
@@ -6865,17 +6865,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D825B5-6723-644B-A864-07705DFE2968}">
   <dimension ref="A2:T64"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="50.09765625" customWidth="1"/>
-    <col min="2" max="3" width="29.09765625" customWidth="1"/>
+    <col min="1" max="1" width="50.0703125" customWidth="1"/>
+    <col min="2" max="3" width="29.0703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -6897,7 +6897,7 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
@@ -6953,7 +6953,7 @@
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>456</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>457</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>458</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>459</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>460</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>461</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>462</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>463</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>464</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>465</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="22"/>
       <c r="C14" s="53" t="s">
@@ -7243,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -7295,7 +7295,7 @@
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
     </row>
-    <row r="16" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>419</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>466</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>467</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>468</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>418</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>469</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>470</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>471</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>472</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>473</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="8"/>
       <c r="B26" s="22"/>
       <c r="C26" s="53" t="s">
@@ -7555,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="12" t="s">
         <v>46</v>
       </c>
@@ -7607,7 +7607,7 @@
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
     </row>
-    <row r="28" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>474</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
         <v>475</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
         <v>476</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
         <v>477</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>478</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>479</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>480</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
         <v>481</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
         <v>482</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
         <v>409</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="13"/>
       <c r="B38" s="22"/>
       <c r="C38" s="53" t="s">
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="15" t="s">
         <v>57</v>
       </c>
@@ -7898,7 +7898,7 @@
       <c r="S39" s="38"/>
       <c r="T39" s="38"/>
     </row>
-    <row r="40" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A40" s="21" t="s">
         <v>483</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A41" s="21" t="s">
         <v>484</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A42" s="21" t="s">
         <v>485</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A43" s="21" t="s">
         <v>486</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A44" s="21" t="s">
         <v>487</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A45" s="21" t="s">
         <v>488</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A46" s="21" t="s">
         <v>489</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A47" s="21" t="s">
         <v>490</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A48" s="21" t="s">
         <v>491</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A49" s="21" t="s">
         <v>492</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="53" t="s">
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51" s="16" t="s">
         <v>74</v>
       </c>
@@ -8174,7 +8174,7 @@
       <c r="S51" s="38"/>
       <c r="T51" s="38"/>
     </row>
-    <row r="52" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A52" s="20" t="s">
         <v>493</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A53" s="20" t="s">
         <v>422</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A54" s="20" t="s">
         <v>494</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A55" s="20" t="s">
         <v>495</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A56" s="20" t="s">
         <v>496</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A57" s="20" t="s">
         <v>497</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A58" s="20" t="s">
         <v>498</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A59" s="20" t="s">
         <v>499</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A60" s="20" t="s">
         <v>500</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A61" s="20" t="s">
         <v>501</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62" s="20"/>
       <c r="B62" s="22"/>
       <c r="C62" s="53" t="s">
@@ -8413,7 +8413,7 @@
         <v>2.6477333333333331</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C64" s="46">
         <v>2013</v>
       </c>
@@ -8499,14 +8499,14 @@
       <selection activeCell="D64" sqref="D64:Q64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="20.8984375" customWidth="1"/>
-    <col min="3" max="3" width="23.8984375" customWidth="1"/>
+    <col min="2" max="2" width="20.92578125" customWidth="1"/>
+    <col min="3" max="3" width="23.92578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -8528,7 +8528,7 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
@@ -8584,7 +8584,7 @@
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>456</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>457</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>458</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>459</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>460</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>461</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>462</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>463</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>464</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>465</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="22"/>
       <c r="C14" s="53" t="s">
@@ -8874,7 +8874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -8926,7 +8926,7 @@
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
     </row>
-    <row r="16" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>419</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="72" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>466</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>467</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="84" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="84" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>468</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="72" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>418</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="72" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>469</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>470</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>471</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="84" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="84" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>472</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>473</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="8"/>
       <c r="B26" s="22"/>
       <c r="C26" s="53" t="s">
@@ -9186,7 +9186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="12" t="s">
         <v>46</v>
       </c>
@@ -9238,7 +9238,7 @@
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
     </row>
-    <row r="28" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>474</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
         <v>475</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
         <v>476</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
         <v>477</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>478</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>479</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>480</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
         <v>481</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
         <v>482</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="84" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="84" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
         <v>409</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="13"/>
       <c r="B38" s="22"/>
       <c r="C38" s="53" t="s">
@@ -9477,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="15" t="s">
         <v>57</v>
       </c>
@@ -9529,7 +9529,7 @@
       <c r="S39" s="38"/>
       <c r="T39" s="38"/>
     </row>
-    <row r="40" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A40" s="21" t="s">
         <v>483</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A41" s="21" t="s">
         <v>484</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="72" x14ac:dyDescent="0.45">
       <c r="A42" s="21" t="s">
         <v>485</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A43" s="21" t="s">
         <v>486</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A44" s="21" t="s">
         <v>487</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A45" s="21" t="s">
         <v>488</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A46" s="21" t="s">
         <v>489</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A47" s="21" t="s">
         <v>490</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A48" s="21" t="s">
         <v>491</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="72" x14ac:dyDescent="0.45">
       <c r="A49" s="21" t="s">
         <v>492</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="53" t="s">
@@ -9753,7 +9753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51" s="16" t="s">
         <v>74</v>
       </c>
@@ -9805,7 +9805,7 @@
       <c r="S51" s="38"/>
       <c r="T51" s="38"/>
     </row>
-    <row r="52" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A52" s="20" t="s">
         <v>493</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A53" s="20" t="s">
         <v>422</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A54" s="20" t="s">
         <v>494</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A55" s="20" t="s">
         <v>495</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A56" s="20" t="s">
         <v>496</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A57" s="20" t="s">
         <v>497</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A58" s="20" t="s">
         <v>498</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A59" s="20" t="s">
         <v>499</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A60" s="20" t="s">
         <v>500</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A61" s="20" t="s">
         <v>501</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C62" s="53" t="s">
         <v>747</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>2.5020136676008704</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C64" s="46">
         <v>2012</v>
       </c>
@@ -10128,13 +10128,13 @@
       <selection activeCell="D51" sqref="D51:Q51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="3" max="3" width="23.3984375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -10184,7 +10184,7 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
@@ -10240,7 +10240,7 @@
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>552</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>553</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>399</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>554</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>555</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>556</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>557</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>558</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>559</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>560</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>561</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="C15" s="52" t="s">
         <v>747</v>
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -10595,7 +10595,7 @@
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>562</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>563</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>408</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>564</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>565</v>
       </c>
@@ -10686,7 +10686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>566</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>567</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="8"/>
       <c r="C24" s="52" t="s">
         <v>747</v>
@@ -10782,7 +10782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>46</v>
       </c>
@@ -10832,7 +10832,7 @@
       <c r="S25" s="38"/>
       <c r="T25" s="38"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>410</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>568</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>569</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
         <v>570</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
         <v>571</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
         <v>572</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>480</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>171</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>256</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" s="13"/>
       <c r="C35" s="52" t="s">
         <v>747</v>
@@ -11017,7 +11017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" s="15" t="s">
         <v>57</v>
       </c>
@@ -11067,7 +11067,7 @@
       <c r="S36" s="38"/>
       <c r="T36" s="38"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="21" t="s">
         <v>573</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="21" t="s">
         <v>61</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="21" t="s">
         <v>574</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40" s="21" t="s">
         <v>575</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41" s="21" t="s">
         <v>576</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42" s="21" t="s">
         <v>577</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43" s="21" t="s">
         <v>578</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44" s="21"/>
       <c r="C44" s="52" t="s">
         <v>747</v>
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45" s="16" t="s">
         <v>74</v>
       </c>
@@ -11277,7 +11277,7 @@
       <c r="S45" s="38"/>
       <c r="T45" s="38"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" s="20" t="s">
         <v>421</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47" s="20" t="s">
         <v>579</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48" s="20" t="s">
         <v>580</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A49" s="20"/>
       <c r="C49" s="52" t="s">
         <v>747</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C51" s="46">
         <v>2011</v>
       </c>
@@ -11464,14 +11464,14 @@
       <selection activeCell="D50" sqref="D50:Q50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="42.59765625" customWidth="1"/>
-    <col min="2" max="2" width="20.09765625" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.0703125" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -11493,7 +11493,7 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
@@ -11549,7 +11549,7 @@
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>581</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>582</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>583</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="24.9" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>584</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>585</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>586</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="96.9" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>587</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>588</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="96.9" x14ac:dyDescent="0.45">
       <c r="A12" s="33" t="s">
         <v>617</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>589</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="5"/>
       <c r="C14" s="51" t="s">
@@ -11845,7 +11845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -11897,7 +11897,7 @@
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
     </row>
-    <row r="16" spans="1:20" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>590</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>591</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>592</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="36.9" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>593</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>594</v>
       </c>
@@ -12000,7 +12000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>595</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>596</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>562</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>563</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="C25" s="51" t="s">
@@ -12143,7 +12143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="12" t="s">
         <v>46</v>
       </c>
@@ -12195,7 +12195,7 @@
       <c r="S26" s="38"/>
       <c r="T26" s="38"/>
     </row>
-    <row r="27" spans="1:20" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>597</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>598</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
         <v>599</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A30" s="34" t="s">
         <v>623</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
         <v>600</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>601</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>602</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>603</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
         <v>604</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" s="13"/>
       <c r="B36" s="5"/>
       <c r="C36" s="51" t="s">
@@ -12393,7 +12393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="15" t="s">
         <v>57</v>
       </c>
@@ -12445,7 +12445,7 @@
       <c r="S37" s="38"/>
       <c r="T37" s="38"/>
     </row>
-    <row r="38" spans="1:20" ht="108.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="108.9" x14ac:dyDescent="0.45">
       <c r="A38" s="21" t="s">
         <v>415</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A39" s="21" t="s">
         <v>176</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="108.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="108.9" x14ac:dyDescent="0.45">
       <c r="A40" s="21" t="s">
         <v>573</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A41" s="21" t="s">
         <v>608</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A42" s="21" t="s">
         <v>578</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43" s="21"/>
       <c r="B43" s="5"/>
       <c r="C43" s="51" t="s">
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44" s="16" t="s">
         <v>74</v>
       </c>
@@ -12639,7 +12639,7 @@
       <c r="S44" s="38"/>
       <c r="T44" s="38"/>
     </row>
-    <row r="45" spans="1:20" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A45" s="20" t="s">
         <v>605</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="96.9" x14ac:dyDescent="0.45">
       <c r="A46" s="20" t="s">
         <v>606</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A47" s="20" t="s">
         <v>607</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C48" s="51" t="s">
         <v>747</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A50" s="32"/>
       <c r="C50" s="46">
         <v>2010</v>
@@ -12835,13 +12835,13 @@
       <selection activeCell="D50" sqref="D50:Q50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
     <col min="2" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -12863,7 +12863,7 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
@@ -12919,7 +12919,7 @@
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>581</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>647</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>583</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>584</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>585</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>586</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>587</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>588</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>648</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>589</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="C14" s="50" t="s">
         <v>747</v>
@@ -13184,7 +13184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -13234,7 +13234,7 @@
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>649</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>650</v>
       </c>
@@ -13271,7 +13271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>651</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>652</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>653</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>563</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>654</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>655</v>
       </c>
@@ -13370,7 +13370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>562</v>
       </c>
@@ -13390,7 +13390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="8"/>
       <c r="C25" s="50" t="s">
         <v>747</v>
@@ -13452,7 +13452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="12" t="s">
         <v>46</v>
       </c>
@@ -13502,7 +13502,7 @@
       <c r="S26" s="38"/>
       <c r="T26" s="38"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>656</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>657</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
         <v>658</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
         <v>659</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
         <v>600</v>
       </c>
@@ -13563,7 +13563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>601</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>660</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>661</v>
       </c>
@@ -13596,7 +13596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
         <v>662</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" s="13"/>
       <c r="C36" s="50" t="s">
         <v>747</v>
@@ -13672,7 +13672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="15" t="s">
         <v>57</v>
       </c>
@@ -13724,7 +13724,7 @@
       <c r="S37" s="38"/>
       <c r="T37" s="38"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="21" t="s">
         <v>415</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="21" t="s">
         <v>663</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40" s="21" t="s">
         <v>664</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41" s="21" t="s">
         <v>665</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42" s="21" t="s">
         <v>578</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43" s="21"/>
       <c r="C43" s="50" t="s">
         <v>747</v>
@@ -13850,7 +13850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44" s="16" t="s">
         <v>74</v>
       </c>
@@ -13902,7 +13902,7 @@
       <c r="S44" s="38"/>
       <c r="T44" s="38"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45" s="20" t="s">
         <v>666</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" s="20" t="s">
         <v>667</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47" s="20" t="s">
         <v>607</v>
       </c>
@@ -13941,7 +13941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C48" s="50" t="s">
         <v>747</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C50" s="46">
         <v>2009</v>
       </c>
@@ -14088,13 +14088,13 @@
       <selection activeCell="D41" sqref="D41:Q41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="51.5" customWidth="1"/>
-    <col min="2" max="3" width="25.09765625" customWidth="1"/>
+    <col min="2" max="3" width="25.0703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -14116,7 +14116,7 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
@@ -14172,7 +14172,7 @@
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>668</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>669</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>670</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>584</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>671</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>585</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="22"/>
       <c r="C10" s="49" t="s">
@@ -14368,7 +14368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
@@ -14420,7 +14420,7 @@
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>672</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>673</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>674</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="35" t="s">
         <v>691</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>675</v>
       </c>
@@ -14525,7 +14525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>676</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="8"/>
       <c r="B18" s="22"/>
       <c r="C18" s="49" t="s">
@@ -14609,7 +14609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -14661,7 +14661,7 @@
       <c r="S19" s="38"/>
       <c r="T19" s="38"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
         <v>656</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>677</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>678</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>679</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>680</v>
       </c>
@@ -14727,7 +14727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>681</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>682</v>
       </c>
@@ -14757,7 +14757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>683</v>
       </c>
@@ -14769,7 +14769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="13"/>
       <c r="B28" s="22"/>
       <c r="C28" s="49" t="s">
@@ -14832,7 +14832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
         <v>57</v>
       </c>
@@ -14884,7 +14884,7 @@
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="21" t="s">
         <v>684</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="21" t="s">
         <v>686</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="21" t="s">
         <v>685</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="96" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="96" x14ac:dyDescent="0.45">
       <c r="A33" s="21" t="s">
         <v>665</v>
       </c>
@@ -14943,7 +14943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="49" t="s">
@@ -15006,7 +15006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" s="16" t="s">
         <v>74</v>
       </c>
@@ -15058,7 +15058,7 @@
       <c r="S35" s="38"/>
       <c r="T35" s="38"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" s="20" t="s">
         <v>687</v>
       </c>
@@ -15073,7 +15073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="20" t="s">
         <v>688</v>
       </c>
@@ -15085,7 +15085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C38" s="49" t="s">
         <v>746</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C41" s="46">
         <v>2008</v>
       </c>
@@ -15232,13 +15232,13 @@
       <selection activeCell="D38" sqref="D38:Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="45.09765625" customWidth="1"/>
+    <col min="1" max="1" width="45.0703125" customWidth="1"/>
     <col min="2" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -15260,7 +15260,7 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
@@ -15316,7 +15316,7 @@
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>693</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>694</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>695</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>696</v>
       </c>
@@ -15399,7 +15399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="36" t="s">
         <v>697</v>
       </c>
@@ -15419,7 +15419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="36"/>
       <c r="C9" s="48" t="s">
         <v>746</v>
@@ -15481,7 +15481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
@@ -15531,7 +15531,7 @@
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>408</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>698</v>
       </c>
@@ -15574,7 +15574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A13" s="37" t="s">
         <v>699</v>
       </c>
@@ -15594,7 +15594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>700</v>
       </c>
@@ -15611,7 +15611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>701</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="8"/>
       <c r="C16" s="48" t="s">
         <v>746</v>
@@ -15690,7 +15690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>46</v>
       </c>
@@ -15740,7 +15740,7 @@
       <c r="S17" s="38"/>
       <c r="T17" s="38"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
         <v>656</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
         <v>705</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
         <v>706</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>707</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>601</v>
       </c>
@@ -15801,7 +15801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>708</v>
       </c>
@@ -15815,7 +15815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>709</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="13"/>
       <c r="C25" s="48" t="s">
         <v>746</v>
@@ -15888,7 +15888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="15" t="s">
         <v>57</v>
       </c>
@@ -15940,7 +15940,7 @@
       <c r="S26" s="38"/>
       <c r="T26" s="38"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="21" t="s">
         <v>702</v>
       </c>
@@ -15952,7 +15952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
         <v>703</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="21" t="s">
         <v>704</v>
       </c>
@@ -15976,7 +15976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="84" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="84" x14ac:dyDescent="0.45">
       <c r="A30" s="21" t="s">
         <v>608</v>
       </c>
@@ -15999,7 +15999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="48" t="s">
@@ -16062,7 +16062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="16" t="s">
         <v>74</v>
       </c>
@@ -16114,7 +16114,7 @@
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" s="20" t="s">
         <v>710</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" s="20" t="s">
         <v>711</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" s="32"/>
       <c r="C35" s="48" t="s">
         <v>746</v>
@@ -16203,7 +16203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C38" s="46">
         <v>2007</v>
       </c>
@@ -16289,13 +16289,13 @@
       <selection activeCell="D46" sqref="D46:Q46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="55.09765625" customWidth="1"/>
-    <col min="2" max="3" width="26.8984375" customWidth="1"/>
+    <col min="1" max="1" width="55.0703125" customWidth="1"/>
+    <col min="2" max="3" width="26.92578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -16317,7 +16317,7 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
@@ -16373,7 +16373,7 @@
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>712</v>
       </c>
@@ -16398,7 +16398,7 @@
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>713</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>714</v>
       </c>
@@ -16438,7 +16438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>715</v>
       </c>
@@ -16458,7 +16458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>716</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>717</v>
       </c>
@@ -16495,7 +16495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="47"/>
       <c r="C10" s="48" t="s">
         <v>746</v>
@@ -16557,7 +16557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
@@ -16607,7 +16607,7 @@
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>718</v>
       </c>
@@ -16624,7 +16624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>719</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>720</v>
       </c>
@@ -16658,7 +16658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>721</v>
       </c>
@@ -16675,7 +16675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>722</v>
       </c>
@@ -16698,7 +16698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>723</v>
       </c>
@@ -16727,7 +16727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="8"/>
       <c r="C18" s="48" t="s">
         <v>746</v>
@@ -16789,7 +16789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -16839,7 +16839,7 @@
       <c r="S19" s="38"/>
       <c r="T19" s="38"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
         <v>724</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>725</v>
       </c>
@@ -16864,7 +16864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>726</v>
       </c>
@@ -16875,7 +16875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>727</v>
       </c>
@@ -16886,7 +16886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>728</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>729</v>
       </c>
@@ -16908,7 +16908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>730</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>731</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="13"/>
       <c r="C28" s="48" t="s">
         <v>746</v>
@@ -16995,7 +16995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
         <v>57</v>
       </c>
@@ -17045,7 +17045,7 @@
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="21" t="s">
         <v>732</v>
       </c>
@@ -17065,7 +17065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="21" t="s">
         <v>733</v>
       </c>
@@ -17076,7 +17076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="21" t="s">
         <v>734</v>
       </c>
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33" s="21" t="s">
         <v>735</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" s="21" t="s">
         <v>736</v>
       </c>
@@ -17121,7 +17121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" s="21" t="s">
         <v>737</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" s="21" t="s">
         <v>738</v>
       </c>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="21"/>
       <c r="C37" s="48" t="s">
         <v>746</v>
@@ -17205,7 +17205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="16" t="s">
         <v>74</v>
       </c>
@@ -17255,7 +17255,7 @@
       <c r="S38" s="38"/>
       <c r="T38" s="38"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="20" t="s">
         <v>739</v>
       </c>
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40" s="20" t="s">
         <v>740</v>
       </c>
@@ -17277,7 +17277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41" s="20" t="s">
         <v>741</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42" s="20" t="s">
         <v>742</v>
       </c>
@@ -17299,7 +17299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C43" s="48" t="s">
         <v>746</v>
       </c>
@@ -17360,7 +17360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C46" s="46">
         <v>2006</v>
       </c>
@@ -17446,14 +17446,14 @@
       <selection activeCell="D46" sqref="D46:Q46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="60.09765625" customWidth="1"/>
+    <col min="1" max="1" width="60.0703125" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
@@ -17472,7 +17472,7 @@
       <c r="S2" s="39"/>
       <c r="T2" s="39"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -17528,7 +17528,7 @@
       <c r="S3" s="39"/>
       <c r="T3" s="39"/>
     </row>
-    <row r="4" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
@@ -17551,7 +17551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>88</v>
       </c>
@@ -17574,7 +17574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>89</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="132.9" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>90</v>
       </c>
@@ -17614,7 +17614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="156.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="144.9" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>91</v>
       </c>
@@ -17637,7 +17637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="120.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="120.9" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>92</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="51" t="s">
@@ -17723,7 +17723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="23" t="s">
         <v>33</v>
       </c>
@@ -17775,7 +17775,7 @@
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
     </row>
-    <row r="12" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="96.9" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
         <v>93</v>
       </c>
@@ -17792,7 +17792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A13" s="24" t="s">
         <v>94</v>
       </c>
@@ -17806,7 +17806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A14" s="24" t="s">
         <v>95</v>
       </c>
@@ -17829,7 +17829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="96.9" x14ac:dyDescent="0.45">
       <c r="A15" s="24" t="s">
         <v>96</v>
       </c>
@@ -17852,7 +17852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="144.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="144.9" x14ac:dyDescent="0.45">
       <c r="A16" s="24" t="s">
         <v>97</v>
       </c>
@@ -17878,7 +17878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="96.9" x14ac:dyDescent="0.45">
       <c r="A17" s="24" t="s">
         <v>98</v>
       </c>
@@ -17898,7 +17898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="24"/>
       <c r="B18" s="5"/>
       <c r="C18" s="51" t="s">
@@ -17961,7 +17961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="25" t="s">
         <v>46</v>
       </c>
@@ -18011,7 +18011,7 @@
       <c r="S19" s="39"/>
       <c r="T19" s="39"/>
     </row>
-    <row r="20" spans="1:20" ht="168" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="168" x14ac:dyDescent="0.45">
       <c r="A20" s="14" t="s">
         <v>99</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="132" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="132" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
         <v>100</v>
       </c>
@@ -18045,7 +18045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A22" s="14" t="s">
         <v>101</v>
       </c>
@@ -18059,7 +18059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="84" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="84" x14ac:dyDescent="0.45">
       <c r="A23" s="14" t="s">
         <v>102</v>
       </c>
@@ -18073,7 +18073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="72" x14ac:dyDescent="0.45">
       <c r="A24" s="14" t="s">
         <v>103</v>
       </c>
@@ -18090,7 +18090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="108" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="108" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
         <v>104</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
       <c r="B26" s="22"/>
       <c r="C26" s="51" t="s">
@@ -18170,7 +18170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="26" t="s">
         <v>57</v>
       </c>
@@ -18222,7 +18222,7 @@
       <c r="S27" s="39"/>
       <c r="T27" s="39"/>
     </row>
-    <row r="28" spans="1:20" ht="84" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="84" x14ac:dyDescent="0.45">
       <c r="A28" s="27" t="s">
         <v>105</v>
       </c>
@@ -18236,7 +18236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="180" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="180" x14ac:dyDescent="0.45">
       <c r="A29" s="27" t="s">
         <v>106</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="108" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="108" x14ac:dyDescent="0.45">
       <c r="A30" s="27" t="s">
         <v>107</v>
       </c>
@@ -18279,7 +18279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="132" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="120" x14ac:dyDescent="0.45">
       <c r="A31" s="27" t="s">
         <v>108</v>
       </c>
@@ -18296,7 +18296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="120" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="120" x14ac:dyDescent="0.45">
       <c r="A32" s="27" t="s">
         <v>109</v>
       </c>
@@ -18310,7 +18310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="144" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="144" x14ac:dyDescent="0.45">
       <c r="A33" s="27" t="s">
         <v>110</v>
       </c>
@@ -18327,7 +18327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="120" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="120" x14ac:dyDescent="0.45">
       <c r="A34" s="27" t="s">
         <v>111</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="168" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="168" x14ac:dyDescent="0.45">
       <c r="A35" s="27" t="s">
         <v>112</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="192" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="192" x14ac:dyDescent="0.45">
       <c r="A36" s="27" t="s">
         <v>113</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="27"/>
       <c r="B37" s="22"/>
       <c r="C37" s="51" t="s">
@@ -18441,7 +18441,7 @@
         <v>7.5982339955849802</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="18" t="s">
         <v>74</v>
       </c>
@@ -18493,7 +18493,7 @@
       <c r="S38" s="39"/>
       <c r="T38" s="39"/>
     </row>
-    <row r="39" spans="1:20" ht="120" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="120" x14ac:dyDescent="0.45">
       <c r="A39" s="28" t="s">
         <v>114</v>
       </c>
@@ -18507,7 +18507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A40" s="28" t="s">
         <v>115</v>
       </c>
@@ -18524,7 +18524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="84" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="84" x14ac:dyDescent="0.45">
       <c r="A41" s="28" t="s">
         <v>116</v>
       </c>
@@ -18541,7 +18541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="156" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="156" x14ac:dyDescent="0.45">
       <c r="A42" s="28" t="s">
         <v>117</v>
       </c>
@@ -18558,7 +18558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="132" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="132" x14ac:dyDescent="0.45">
       <c r="A43" s="28" t="s">
         <v>118</v>
       </c>
@@ -18575,7 +18575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C44" s="51" t="s">
         <v>747</v>
       </c>
@@ -18636,7 +18636,7 @@
         <v>6.58278145695364</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C46" s="46">
         <v>2023</v>
       </c>
@@ -18718,13 +18718,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507902FD-9199-B148-9F29-C0398F55B14C}">
   <dimension ref="A3:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+    <sheetView zoomScale="84" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B3" s="60" t="s">
         <v>748</v>
       </c>
@@ -18771,7 +18771,7 @@
       <c r="Q3" s="38"/>
       <c r="R3" s="38"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="46">
         <v>2006</v>
       </c>
@@ -18818,7 +18818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="46">
         <v>2007</v>
       </c>
@@ -18865,7 +18865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="46">
         <v>2008</v>
       </c>
@@ -18912,7 +18912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="46">
         <v>2009</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="46">
         <v>2010</v>
       </c>
@@ -19006,7 +19006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="46">
         <v>2011</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="46">
         <v>2012</v>
       </c>
@@ -19100,7 +19100,7 @@
         <v>2.5020136676008704</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="46">
         <v>2013</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>2.6477333333333331</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="46">
         <v>2014</v>
       </c>
@@ -19194,7 +19194,7 @@
         <v>2.7941416484130039</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="46">
         <v>2015</v>
       </c>
@@ -19241,7 +19241,7 @@
         <v>2.9521687537357906</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="46">
         <v>2016</v>
       </c>
@@ -19288,7 +19288,7 @@
         <v>3.1035454829076943</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="46">
         <v>2017</v>
       </c>
@@ -19335,7 +19335,7 @@
         <v>2.8683876047244565</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="46">
         <v>2018</v>
       </c>
@@ -19382,7 +19382,7 @@
         <v>2.7048884135472342</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="46">
         <v>2019</v>
       </c>
@@ -19429,7 +19429,7 @@
         <v>2.6852681229106503</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="46">
         <v>2020</v>
       </c>
@@ -19476,7 +19476,7 @@
         <v>2.7350730136606121</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="46">
         <v>2021</v>
       </c>
@@ -19523,12 +19523,12 @@
         <v>11.136784753966058</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="46">
         <v>2022</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="46">
         <v>2023</v>
       </c>
@@ -19575,7 +19575,7 @@
         <v>14.18101545253862</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="46">
         <v>2024</v>
       </c>
@@ -19622,7 +19622,7 @@
         <v>7.6194884927279203</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B25">
         <f>AVERAGE(B4:B19,B21,B22)</f>
         <v>39.351135492597336</v>
@@ -19909,13 +19909,13 @@
       <selection activeCell="C3" sqref="C3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="44.09765625" customWidth="1"/>
+    <col min="1" max="1" width="44.0703125" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="38"/>
@@ -19936,7 +19936,7 @@
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
@@ -19989,7 +19989,7 @@
       <c r="R3" s="38"/>
       <c r="S3" s="38"/>
     </row>
-    <row r="4" spans="1:19" ht="36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>152</v>
       </c>
@@ -19997,7 +19997,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="36" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>153</v>
       </c>
@@ -20005,7 +20005,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="48" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>154</v>
       </c>
@@ -20013,7 +20013,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="36" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>155</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>156</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="24" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
@@ -20037,7 +20037,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="60" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>158</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
@@ -20096,7 +20096,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="38"/>
     </row>
-    <row r="12" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="48" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
         <v>34</v>
       </c>
@@ -20104,7 +20104,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="60" x14ac:dyDescent="0.45">
       <c r="A13" s="24" t="s">
         <v>159</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="60" x14ac:dyDescent="0.45">
       <c r="A14" s="24" t="s">
         <v>160</v>
       </c>
@@ -20120,7 +20120,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="72" x14ac:dyDescent="0.45">
       <c r="A15" s="24" t="s">
         <v>161</v>
       </c>
@@ -20128,7 +20128,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="48" x14ac:dyDescent="0.45">
       <c r="A16" s="24" t="s">
         <v>162</v>
       </c>
@@ -20136,7 +20136,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="48" x14ac:dyDescent="0.45">
       <c r="A17" s="24" t="s">
         <v>163</v>
       </c>
@@ -20144,7 +20144,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>46</v>
       </c>
@@ -20195,7 +20195,7 @@
       <c r="R18" s="38"/>
       <c r="S18" s="38"/>
     </row>
-    <row r="19" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="72" x14ac:dyDescent="0.45">
       <c r="A19" s="14" t="s">
         <v>164</v>
       </c>
@@ -20203,7 +20203,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="36" x14ac:dyDescent="0.45">
       <c r="A20" s="14" t="s">
         <v>165</v>
       </c>
@@ -20211,7 +20211,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="72" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
         <v>166</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="48" x14ac:dyDescent="0.45">
       <c r="A22" s="14" t="s">
         <v>167</v>
       </c>
@@ -20227,7 +20227,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="48" x14ac:dyDescent="0.45">
       <c r="A23" s="14" t="s">
         <v>168</v>
       </c>
@@ -20235,7 +20235,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="48" x14ac:dyDescent="0.45">
       <c r="A24" s="14" t="s">
         <v>169</v>
       </c>
@@ -20243,7 +20243,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="48" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
         <v>170</v>
       </c>
@@ -20251,7 +20251,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="36" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
         <v>171</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="15" t="s">
         <v>57</v>
       </c>
@@ -20310,7 +20310,7 @@
       <c r="R27" s="38"/>
       <c r="S27" s="38"/>
     </row>
-    <row r="28" spans="1:19" ht="60" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="48" x14ac:dyDescent="0.45">
       <c r="A28" s="27" t="s">
         <v>172</v>
       </c>
@@ -20318,7 +20318,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="48" x14ac:dyDescent="0.45">
       <c r="A29" s="27" t="s">
         <v>173</v>
       </c>
@@ -20326,7 +20326,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="72" x14ac:dyDescent="0.45">
       <c r="A30" s="27" t="s">
         <v>174</v>
       </c>
@@ -20334,7 +20334,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="72" x14ac:dyDescent="0.45">
       <c r="A31" s="27" t="s">
         <v>175</v>
       </c>
@@ -20342,7 +20342,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="48" x14ac:dyDescent="0.45">
       <c r="A32" s="27" t="s">
         <v>176</v>
       </c>
@@ -20350,7 +20350,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="48" x14ac:dyDescent="0.45">
       <c r="A33" s="27" t="s">
         <v>177</v>
       </c>
@@ -20358,7 +20358,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="60" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="60" x14ac:dyDescent="0.45">
       <c r="A34" s="27" t="s">
         <v>178</v>
       </c>
@@ -20366,7 +20366,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="72" x14ac:dyDescent="0.45">
       <c r="A35" s="27" t="s">
         <v>179</v>
       </c>
@@ -20374,7 +20374,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="60" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="60" x14ac:dyDescent="0.45">
       <c r="A36" s="27" t="s">
         <v>180</v>
       </c>
@@ -20382,7 +20382,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="60" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="60" x14ac:dyDescent="0.45">
       <c r="A37" s="27" t="s">
         <v>181</v>
       </c>
@@ -20390,7 +20390,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A38" s="16" t="s">
         <v>74</v>
       </c>
@@ -20441,7 +20441,7 @@
       <c r="R38" s="38"/>
       <c r="S38" s="38"/>
     </row>
-    <row r="39" spans="1:19" ht="60" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="60" x14ac:dyDescent="0.45">
       <c r="A39" s="28" t="s">
         <v>182</v>
       </c>
@@ -20449,7 +20449,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="60" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="60" x14ac:dyDescent="0.45">
       <c r="A40" s="28" t="s">
         <v>183</v>
       </c>
@@ -20457,7 +20457,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="72" x14ac:dyDescent="0.45">
       <c r="A41" s="28" t="s">
         <v>184</v>
       </c>
@@ -20465,7 +20465,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="60" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="60" x14ac:dyDescent="0.45">
       <c r="A42" s="28" t="s">
         <v>185</v>
       </c>
@@ -20473,7 +20473,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="72" x14ac:dyDescent="0.45">
       <c r="A43" s="28" t="s">
         <v>186</v>
       </c>
@@ -20481,7 +20481,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="60" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="60" x14ac:dyDescent="0.45">
       <c r="A44" s="28" t="s">
         <v>187</v>
       </c>
@@ -20502,13 +20502,13 @@
       <selection activeCell="D49" sqref="D49:Q49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="43.59765625" customWidth="1"/>
-    <col min="2" max="3" width="25.8984375" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="3" width="25.92578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -20530,7 +20530,7 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
@@ -20586,7 +20586,7 @@
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="1:20" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>225</v>
       </c>
@@ -20609,7 +20609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>226</v>
       </c>
@@ -20626,7 +20626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>227</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>228</v>
       </c>
@@ -20672,7 +20672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>229</v>
       </c>
@@ -20695,7 +20695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="24.9" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>230</v>
       </c>
@@ -20718,7 +20718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>231</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="5"/>
       <c r="C11" s="51" t="s">
@@ -20804,7 +20804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -20856,7 +20856,7 @@
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
     </row>
-    <row r="13" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>34</v>
       </c>
@@ -20873,7 +20873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>232</v>
       </c>
@@ -20896,7 +20896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>233</v>
       </c>
@@ -20919,7 +20919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="96.9" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>161</v>
       </c>
@@ -20942,7 +20942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>162</v>
       </c>
@@ -20962,7 +20962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>163</v>
       </c>
@@ -20982,7 +20982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
       <c r="C19" s="51" t="s">
@@ -21045,7 +21045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>46</v>
       </c>
@@ -21097,7 +21097,7 @@
       <c r="S20" s="38"/>
       <c r="T20" s="38"/>
     </row>
-    <row r="21" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="96.9" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
         <v>164</v>
       </c>
@@ -21114,7 +21114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A22" s="14" t="s">
         <v>165</v>
       </c>
@@ -21128,7 +21128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A23" s="14" t="s">
         <v>234</v>
       </c>
@@ -21148,7 +21148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A24" s="14" t="s">
         <v>235</v>
       </c>
@@ -21162,7 +21162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
         <v>169</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
         <v>170</v>
       </c>
@@ -21193,7 +21193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
       <c r="A27" s="14" t="s">
         <v>171</v>
       </c>
@@ -21210,7 +21210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="5"/>
       <c r="C28" s="51" t="s">
@@ -21273,7 +21273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
         <v>57</v>
       </c>
@@ -21325,7 +21325,7 @@
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
     </row>
-    <row r="30" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A30" s="27" t="s">
         <v>172</v>
       </c>
@@ -21339,7 +21339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A31" s="27" t="s">
         <v>173</v>
       </c>
@@ -21356,7 +21356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="96.9" x14ac:dyDescent="0.45">
       <c r="A32" s="27" t="s">
         <v>174</v>
       </c>
@@ -21370,7 +21370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="96.9" x14ac:dyDescent="0.45">
       <c r="A33" s="27" t="s">
         <v>175</v>
       </c>
@@ -21390,7 +21390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A34" s="27" t="s">
         <v>176</v>
       </c>
@@ -21404,7 +21404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A35" s="27" t="s">
         <v>177</v>
       </c>
@@ -21418,7 +21418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A36" s="27" t="s">
         <v>178</v>
       </c>
@@ -21432,7 +21432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A37" s="27" t="s">
         <v>180</v>
       </c>
@@ -21446,7 +21446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A38" s="27" t="s">
         <v>181</v>
       </c>
@@ -21460,7 +21460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="51" t="s">
@@ -21523,7 +21523,7 @@
         <v>5.4764888318288421</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40" s="16" t="s">
         <v>74</v>
       </c>
@@ -21575,7 +21575,7 @@
       <c r="S40" s="38"/>
       <c r="T40" s="38"/>
     </row>
-    <row r="41" spans="1:20" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A41" s="28" t="s">
         <v>182</v>
       </c>
@@ -21589,7 +21589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A42" s="28" t="s">
         <v>183</v>
       </c>
@@ -21606,7 +21606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="108.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="108.9" x14ac:dyDescent="0.45">
       <c r="A43" s="28" t="s">
         <v>184</v>
       </c>
@@ -21623,7 +21623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A44" s="28" t="s">
         <v>185</v>
       </c>
@@ -21640,7 +21640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="96.9" x14ac:dyDescent="0.45">
       <c r="A45" s="28" t="s">
         <v>186</v>
       </c>
@@ -21657,7 +21657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A46" s="28" t="s">
         <v>187</v>
       </c>
@@ -21671,7 +21671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C47" s="51" t="s">
         <v>747</v>
       </c>
@@ -21732,7 +21732,7 @@
         <v>5.660295922137216</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C49" s="46">
         <v>2021</v>
       </c>
@@ -21818,14 +21818,14 @@
       <selection activeCell="D44" sqref="D44:Q44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="41.09765625" customWidth="1"/>
-    <col min="3" max="3" width="28.8984375" customWidth="1"/>
+    <col min="2" max="2" width="41.0703125" customWidth="1"/>
+    <col min="3" max="3" width="28.92578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -21847,7 +21847,7 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
@@ -21903,7 +21903,7 @@
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>251</v>
       </c>
@@ -21926,7 +21926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>252</v>
       </c>
@@ -21952,7 +21952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>253</v>
       </c>
@@ -21972,7 +21972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>254</v>
       </c>
@@ -21995,7 +21995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>255</v>
       </c>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>256</v>
       </c>
@@ -22035,7 +22035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>257</v>
       </c>
@@ -22061,7 +22061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>258</v>
       </c>
@@ -22084,7 +22084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>259</v>
       </c>
@@ -22107,7 +22107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="22"/>
       <c r="C13" s="53" t="s">
@@ -22170,7 +22170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -22222,7 +22222,7 @@
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
     </row>
-    <row r="15" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>233</v>
       </c>
@@ -22245,7 +22245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>260</v>
       </c>
@@ -22268,7 +22268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>261</v>
       </c>
@@ -22285,7 +22285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>262</v>
       </c>
@@ -22311,7 +22311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>263</v>
       </c>
@@ -22337,7 +22337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="8"/>
       <c r="B20" s="22"/>
       <c r="C20" s="53" t="s">
@@ -22400,7 +22400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>46</v>
       </c>
@@ -22452,7 +22452,7 @@
       <c r="S21" s="38"/>
       <c r="T21" s="38"/>
     </row>
-    <row r="22" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>264</v>
       </c>
@@ -22469,7 +22469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>265</v>
       </c>
@@ -22486,7 +22486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>266</v>
       </c>
@@ -22500,7 +22500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>267</v>
       </c>
@@ -22517,7 +22517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>268</v>
       </c>
@@ -22531,7 +22531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>171</v>
       </c>
@@ -22548,7 +22548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="13"/>
       <c r="B28" s="22"/>
       <c r="C28" s="53" t="s">
@@ -22611,7 +22611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
         <v>57</v>
       </c>
@@ -22663,7 +22663,7 @@
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
     </row>
-    <row r="30" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A30" s="21" t="s">
         <v>269</v>
       </c>
@@ -22677,7 +22677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A31" s="21" t="s">
         <v>270</v>
       </c>
@@ -22694,7 +22694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A32" s="21" t="s">
         <v>177</v>
       </c>
@@ -22708,7 +22708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A33" s="21" t="s">
         <v>271</v>
       </c>
@@ -22722,7 +22722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A34" s="21" t="s">
         <v>272</v>
       </c>
@@ -22736,7 +22736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A35" s="21" t="s">
         <v>273</v>
       </c>
@@ -22756,7 +22756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="53" t="s">
@@ -22819,7 +22819,7 @@
         <v>2.7350730136606121</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
         <v>74</v>
       </c>
@@ -22871,7 +22871,7 @@
       <c r="S37" s="38"/>
       <c r="T37" s="38"/>
     </row>
-    <row r="38" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A38" s="20" t="s">
         <v>274</v>
       </c>
@@ -22885,7 +22885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A39" s="20" t="s">
         <v>275</v>
       </c>
@@ -22902,7 +22902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A40" s="20" t="s">
         <v>276</v>
       </c>
@@ -22919,7 +22919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A41" s="20" t="s">
         <v>277</v>
       </c>
@@ -22936,7 +22936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C42" s="53" t="s">
         <v>747</v>
       </c>
@@ -22997,7 +22997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C44" s="46">
         <v>2020</v>
       </c>
@@ -23083,13 +23083,13 @@
       <selection activeCell="D44" sqref="D44:Q44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="58.09765625" customWidth="1"/>
+    <col min="1" max="1" width="58.0703125" customWidth="1"/>
     <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -23111,7 +23111,7 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
@@ -23167,7 +23167,7 @@
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>308</v>
       </c>
@@ -23190,7 +23190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>259</v>
       </c>
@@ -23213,7 +23213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>252</v>
       </c>
@@ -23239,7 +23239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>253</v>
       </c>
@@ -23256,7 +23256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>309</v>
       </c>
@@ -23279,7 +23279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>255</v>
       </c>
@@ -23296,7 +23296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="84" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="84" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>310</v>
       </c>
@@ -23319,7 +23319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>311</v>
       </c>
@@ -23345,7 +23345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>258</v>
       </c>
@@ -23368,7 +23368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="22"/>
       <c r="C13" s="53" t="s">
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -23483,7 +23483,7 @@
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
     </row>
-    <row r="15" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>233</v>
       </c>
@@ -23506,7 +23506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>260</v>
       </c>
@@ -23529,7 +23529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>312</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="72" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>262</v>
       </c>
@@ -23572,7 +23572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="72" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>313</v>
       </c>
@@ -23598,7 +23598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="8"/>
       <c r="B20" s="22"/>
       <c r="C20" s="53" t="s">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>46</v>
       </c>
@@ -23713,7 +23713,7 @@
       <c r="S21" s="38"/>
       <c r="T21" s="38"/>
     </row>
-    <row r="22" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>264</v>
       </c>
@@ -23730,7 +23730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>265</v>
       </c>
@@ -23747,7 +23747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>266</v>
       </c>
@@ -23761,7 +23761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>267</v>
       </c>
@@ -23778,7 +23778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>314</v>
       </c>
@@ -23792,7 +23792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>171</v>
       </c>
@@ -23809,7 +23809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="13"/>
       <c r="B28" s="22"/>
       <c r="C28" s="53" t="s">
@@ -23872,7 +23872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
         <v>57</v>
       </c>
@@ -23924,7 +23924,7 @@
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
     </row>
-    <row r="30" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A30" s="21" t="s">
         <v>269</v>
       </c>
@@ -23938,7 +23938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A31" s="21" t="s">
         <v>270</v>
       </c>
@@ -23955,7 +23955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A32" s="21" t="s">
         <v>177</v>
       </c>
@@ -23969,7 +23969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A33" s="21" t="s">
         <v>315</v>
       </c>
@@ -23983,7 +23983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="72" x14ac:dyDescent="0.45">
       <c r="A34" s="21" t="s">
         <v>316</v>
       </c>
@@ -23997,7 +23997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A35" s="21" t="s">
         <v>273</v>
       </c>
@@ -24017,7 +24017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="53" t="s">
@@ -24080,7 +24080,7 @@
         <v>2.6852681229106503</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
         <v>74</v>
       </c>
@@ -24132,7 +24132,7 @@
       <c r="S37" s="38"/>
       <c r="T37" s="38"/>
     </row>
-    <row r="38" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="72" x14ac:dyDescent="0.45">
       <c r="A38" s="20" t="s">
         <v>274</v>
       </c>
@@ -24146,7 +24146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A39" s="20" t="s">
         <v>317</v>
       </c>
@@ -24163,7 +24163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A40" s="20" t="s">
         <v>318</v>
       </c>
@@ -24180,7 +24180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A41" s="20" t="s">
         <v>319</v>
       </c>
@@ -24197,7 +24197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C42" s="53" t="s">
         <v>747</v>
       </c>
@@ -24258,7 +24258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C44" s="46">
         <v>2019</v>
       </c>
@@ -24344,13 +24344,13 @@
       <selection activeCell="D44" sqref="D44:Q44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="52.3984375" customWidth="1"/>
-    <col min="2" max="3" width="28.3984375" customWidth="1"/>
+    <col min="1" max="1" width="52.42578125" customWidth="1"/>
+    <col min="2" max="3" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -24372,7 +24372,7 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
@@ -24428,7 +24428,7 @@
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>308</v>
       </c>
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>259</v>
       </c>
@@ -24474,7 +24474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>252</v>
       </c>
@@ -24500,7 +24500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>253</v>
       </c>
@@ -24517,7 +24517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>309</v>
       </c>
@@ -24540,7 +24540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>255</v>
       </c>
@@ -24557,7 +24557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="84" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="72" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>256</v>
       </c>
@@ -24580,7 +24580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>311</v>
       </c>
@@ -24606,7 +24606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>258</v>
       </c>
@@ -24629,7 +24629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="22"/>
       <c r="C13" s="54" t="s">
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -24741,7 +24741,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>233</v>
       </c>
@@ -24764,7 +24764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>260</v>
       </c>
@@ -24787,7 +24787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="48" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="48" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>312</v>
       </c>
@@ -24804,7 +24804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="72" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>262</v>
       </c>
@@ -24830,7 +24830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="72" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>313</v>
       </c>
@@ -24856,7 +24856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="8"/>
       <c r="B20" s="22"/>
       <c r="C20" s="54" t="s">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>46</v>
       </c>
@@ -24968,7 +24968,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="36" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>264</v>
       </c>
@@ -24985,7 +24985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="36" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>265</v>
       </c>
@@ -25002,7 +25002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="60" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="60" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>266</v>
       </c>
@@ -25016,7 +25016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="48" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="48" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>267</v>
       </c>
@@ -25033,7 +25033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="48" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="48" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>314</v>
       </c>
@@ -25047,7 +25047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="48" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="48" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>171</v>
       </c>
@@ -25064,7 +25064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="13"/>
       <c r="B28" s="22"/>
       <c r="C28" s="54" t="s">
@@ -25127,7 +25127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
         <v>57</v>
       </c>
@@ -25176,7 +25176,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="36" x14ac:dyDescent="0.45">
       <c r="A30" s="21" t="s">
         <v>269</v>
       </c>
@@ -25190,7 +25190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="48" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="36" x14ac:dyDescent="0.45">
       <c r="A31" s="21" t="s">
         <v>270</v>
       </c>
@@ -25207,7 +25207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="36" x14ac:dyDescent="0.45">
       <c r="A32" s="21" t="s">
         <v>177</v>
       </c>
@@ -25221,7 +25221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="60" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="60" x14ac:dyDescent="0.45">
       <c r="A33" s="21" t="s">
         <v>315</v>
       </c>
@@ -25235,7 +25235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="72" x14ac:dyDescent="0.45">
       <c r="A34" s="21" t="s">
         <v>316</v>
       </c>
@@ -25249,7 +25249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="48" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="48" x14ac:dyDescent="0.45">
       <c r="A35" s="21" t="s">
         <v>273</v>
       </c>
@@ -25269,7 +25269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="54" t="s">
@@ -25332,7 +25332,7 @@
         <v>2.7048884135472342</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
         <v>74</v>
       </c>
@@ -25381,7 +25381,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="72" x14ac:dyDescent="0.45">
       <c r="A38" s="20" t="s">
         <v>274</v>
       </c>
@@ -25395,7 +25395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="60" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="60" x14ac:dyDescent="0.45">
       <c r="A39" s="20" t="s">
         <v>317</v>
       </c>
@@ -25412,7 +25412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="48" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="48" x14ac:dyDescent="0.45">
       <c r="A40" s="20" t="s">
         <v>318</v>
       </c>
@@ -25429,7 +25429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="36" x14ac:dyDescent="0.45">
       <c r="A41" s="20" t="s">
         <v>319</v>
       </c>
@@ -25446,7 +25446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A42" s="20"/>
       <c r="B42" s="22"/>
       <c r="C42" s="54" t="s">
@@ -25509,7 +25509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C44" s="55">
         <v>2018</v>
       </c>
@@ -25595,14 +25595,14 @@
       <selection activeCell="D44" sqref="D44:Q44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="60.59765625" customWidth="1"/>
-    <col min="2" max="2" width="23.09765625" customWidth="1"/>
-    <col min="3" max="3" width="26.3984375" customWidth="1"/>
+    <col min="1" max="1" width="60.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.0703125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -25652,7 +25652,7 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
@@ -25708,7 +25708,7 @@
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>308</v>
       </c>
@@ -25731,7 +25731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>259</v>
       </c>
@@ -25754,7 +25754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>252</v>
       </c>
@@ -25780,7 +25780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="84" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="84" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>253</v>
       </c>
@@ -25797,7 +25797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>309</v>
       </c>
@@ -25820,7 +25820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>255</v>
       </c>
@@ -25837,7 +25837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="96" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="96" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>256</v>
       </c>
@@ -25860,7 +25860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>311</v>
       </c>
@@ -25886,7 +25886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>258</v>
       </c>
@@ -25909,7 +25909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="22"/>
       <c r="C13" s="54" t="s">
@@ -25972,7 +25972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -26021,7 +26021,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>233</v>
       </c>
@@ -26044,7 +26044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="84" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="84" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>260</v>
       </c>
@@ -26067,7 +26067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="48" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="48" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>312</v>
       </c>
@@ -26084,7 +26084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="84" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="84" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>262</v>
       </c>
@@ -26110,7 +26110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="84" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="84" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>313</v>
       </c>
@@ -26136,7 +26136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="8"/>
       <c r="B20" s="22"/>
       <c r="C20" s="54" t="s">
@@ -26199,7 +26199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>46</v>
       </c>
@@ -26248,7 +26248,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="48" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="48" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>264</v>
       </c>
@@ -26265,7 +26265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="48" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="48" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>265</v>
       </c>
@@ -26282,7 +26282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="72" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>266</v>
       </c>
@@ -26296,7 +26296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="48" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="48" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>267</v>
       </c>
@@ -26313,7 +26313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="60" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="60" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>314</v>
       </c>
@@ -26327,7 +26327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="72" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>171</v>
       </c>
@@ -26344,7 +26344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="13"/>
       <c r="B28" s="22"/>
       <c r="C28" s="54" t="s">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
         <v>57</v>
       </c>
@@ -26456,7 +26456,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="60" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="48" x14ac:dyDescent="0.45">
       <c r="A30" s="21" t="s">
         <v>269</v>
       </c>
@@ -26470,7 +26470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="48" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="48" x14ac:dyDescent="0.45">
       <c r="A31" s="21" t="s">
         <v>270</v>
       </c>
@@ -26487,7 +26487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="48" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="48" x14ac:dyDescent="0.45">
       <c r="A32" s="21" t="s">
         <v>177</v>
       </c>
@@ -26501,7 +26501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="72" x14ac:dyDescent="0.45">
       <c r="A33" s="21" t="s">
         <v>315</v>
       </c>
@@ -26515,7 +26515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="84" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="84" x14ac:dyDescent="0.45">
       <c r="A34" s="21" t="s">
         <v>316</v>
       </c>
@@ -26529,7 +26529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="60" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="60" x14ac:dyDescent="0.45">
       <c r="A35" s="21" t="s">
         <v>273</v>
       </c>
@@ -26549,7 +26549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="54" t="s">
@@ -26612,7 +26612,7 @@
         <v>2.8683876047244565</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
         <v>74</v>
       </c>
@@ -26661,7 +26661,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="84" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="84" x14ac:dyDescent="0.45">
       <c r="A38" s="20" t="s">
         <v>274</v>
       </c>
@@ -26675,7 +26675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="72" x14ac:dyDescent="0.45">
       <c r="A39" s="20" t="s">
         <v>317</v>
       </c>
@@ -26692,7 +26692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="60" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="60" x14ac:dyDescent="0.45">
       <c r="A40" s="20" t="s">
         <v>318</v>
       </c>
@@ -26709,7 +26709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="36" x14ac:dyDescent="0.45">
       <c r="A41" s="20" t="s">
         <v>319</v>
       </c>
@@ -26726,7 +26726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C42" s="54" t="s">
         <v>747</v>
       </c>
@@ -26787,7 +26787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C44" s="46">
         <v>2017</v>
       </c>
@@ -26873,13 +26873,13 @@
       <selection activeCell="D43" sqref="D43:Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="53.3984375" customWidth="1"/>
-    <col min="2" max="3" width="31.8984375" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" customWidth="1"/>
+    <col min="2" max="3" width="31.92578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -26901,7 +26901,7 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
@@ -26957,7 +26957,7 @@
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
-    <row r="4" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>308</v>
       </c>
@@ -26980,7 +26980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>259</v>
       </c>
@@ -27003,7 +27003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>252</v>
       </c>
@@ -27029,7 +27029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>253</v>
       </c>
@@ -27046,7 +27046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>309</v>
       </c>
@@ -27069,7 +27069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>255</v>
       </c>
@@ -27086,7 +27086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="60" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>256</v>
       </c>
@@ -27109,7 +27109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>311</v>
       </c>
@@ -27135,7 +27135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="24" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>258</v>
       </c>
@@ -27158,7 +27158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="22"/>
       <c r="C13" s="51" t="s">
@@ -27221,7 +27221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -27270,7 +27270,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>233</v>
       </c>
@@ -27293,7 +27293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>260</v>
       </c>
@@ -27316,7 +27316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="36" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>312</v>
       </c>
@@ -27333,7 +27333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="60" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="60" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>262</v>
       </c>
@@ -27359,7 +27359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="48" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="48" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>313</v>
       </c>
@@ -27385,7 +27385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="8"/>
       <c r="B20" s="22"/>
       <c r="C20" s="51" t="s">
@@ -27448,7 +27448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>46</v>
       </c>
@@ -27497,7 +27497,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="36" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>264</v>
       </c>
@@ -27514,7 +27514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="48" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="48" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>266</v>
       </c>
@@ -27528,7 +27528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="36" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>267</v>
       </c>
@@ -27545,7 +27545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="36" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>314</v>
       </c>
@@ -27559,7 +27559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="48" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="48" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>171</v>
       </c>
@@ -27576,7 +27576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="13"/>
       <c r="B27" s="22"/>
       <c r="C27" s="51" t="s">
@@ -27639,7 +27639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="15" t="s">
         <v>57</v>
       </c>
@@ -27688,7 +27688,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="36" x14ac:dyDescent="0.45">
       <c r="A29" s="21" t="s">
         <v>269</v>
       </c>
@@ -27702,7 +27702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="36" x14ac:dyDescent="0.45">
       <c r="A30" s="21" t="s">
         <v>270</v>
       </c>
@@ -27719,7 +27719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="36" x14ac:dyDescent="0.45">
       <c r="A31" s="21" t="s">
         <v>177</v>
       </c>
@@ -27733,7 +27733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="48" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="48" x14ac:dyDescent="0.45">
       <c r="A32" s="21" t="s">
         <v>315</v>
       </c>
@@ -27747,7 +27747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="60" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="60" x14ac:dyDescent="0.45">
       <c r="A33" s="21" t="s">
         <v>316</v>
       </c>
@@ -27761,7 +27761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="48" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="48" x14ac:dyDescent="0.45">
       <c r="A34" s="21" t="s">
         <v>273</v>
       </c>
@@ -27781,7 +27781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="51" t="s">
@@ -27844,7 +27844,7 @@
         <v>3.1035454829076943</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
         <v>74</v>
       </c>
@@ -27893,7 +27893,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="60" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="60" x14ac:dyDescent="0.45">
       <c r="A37" s="20" t="s">
         <v>274</v>
       </c>
@@ -27907,7 +27907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="48" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="48" x14ac:dyDescent="0.45">
       <c r="A38" s="20" t="s">
         <v>317</v>
       </c>
@@ -27924,7 +27924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="36" x14ac:dyDescent="0.45">
       <c r="A39" s="20" t="s">
         <v>318</v>
       </c>
@@ -27941,7 +27941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="24" x14ac:dyDescent="0.45">
       <c r="A40" s="20" t="s">
         <v>319</v>
       </c>
@@ -27958,7 +27958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C41" s="51" t="s">
         <v>747</v>
       </c>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C43" s="46">
         <v>2016</v>
       </c>
